--- a/projects/Prototype/Commmon/Template/prototype.xlsx
+++ b/projects/Prototype/Commmon/Template/prototype.xlsx
@@ -1,43 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\AspDotNetDemo\projects\Prototype\Commmon\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prototype" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>今日の売上！</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>売上数</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>りんご</t>
+  </si>
+  <si>
+    <t>みかん</t>
+  </si>
+  <si>
+    <t>ばなな</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +103,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +151,190 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Prototype!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>りんご</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>みかん</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ばなな</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Prototype!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-316E-4746-ADCB-53AD1DF368AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +350,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +362,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +379,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +409,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +630,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <f>B6 * C6</f>
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B7 * C7</f>
+        <v>900</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <f>B8 * C8</f>
+        <v>2400</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7087" right="0.7087" top="0.748" bottom="0.59055118110236204" header="0.315" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LExcel出力</oddHeader>
+    <oddFooter>&amp;R&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>